--- a/biology/Botanique/Clématite/Clématite.xlsx
+++ b/biology/Botanique/Clématite/Clématite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9matite</t>
+          <t>Clématite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clematis
 Les Clématites (Clematis) forment un genre de la famille des renonculacées.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9matite</t>
+          <t>Clématite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « Clématite » provient du grec klématis, qui signifie sarment ou branche. La première espèce connue est la Clematis vitalba, qui dès l'Antiquité était utilisée en huile macérée pour lutter contre la gale.
 Elle fut mentionnée pour la première fois en 1548 dans l'herbier de William Turner. À cette époque la clématite était nommée : Travellers's Joy dans les pays anglophones alors qu'en France elle était nommée vigne blanche ou  herbe aux gueux car les mendiants l'utilisaient en frottant leur peau pour ainsi provoquer des irritations et se faire plaindre des passants.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9matite</t>
+          <t>Clématite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,16 +566,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Caractéristiques générales
-Le genre a été nommé par Carl von Linné en 1753 à partir du nom κληματἰς / klématis, en grec ancien.
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été nommé par Carl von Linné en 1753 à partir du nom κληματἰς / klématis, en grec ancien.
 Les plantes du genre Clematis sont la plupart du temps grimpantes, ligneuses, atteignant en général deux à cinq mètres de haut.
-Feuilles
-Les feuilles, parfois opposées, parfois alternes, glabres ou pubescentes, sont simples, tripalmées, pennées ou bipennées, avec le bord entier ou irrégulièrement découpé. Les espèces grimpantes s'accrochent au support ou à la plante hôte par le biais des pétioles transformés en vrilles. Certaines espèces disposent de feuilles persistantes comme la Clematis armandii ou les clématites du genre cirrhosa.
-Fleurs
-Les fleurs, bisexuées, sont généralement solitaires ou groupées en cymes ou en panicules. Elles ne possèdent pas de pétales mais présentent 4 à 10 sépales, avec des dimensions et des formes très variables. Les clématites sont cultivées pour leur floraison généreuse, souvent suivie de fruits plumeux, décoratifs, gris argenté.
-Certaines, comme Clematis recta, sont odorantes. Utilisez les formes grimpantes pour garnir une pergola, un treillage, un arceau, une tonnelle ou un mur, voire pour habiller les branches d'un grand arbuste ou d'un petit arbre. Cultivez les espèces herbacées dans les massifs.
-Toxicité
-Les clématites contiennent une proto-anémonine toxique[1]. En interne le jus est un violent purgatif qui peut être fatal. En externe, elles peuvent être irritantes et allergisantes[2]. Elles sont toxiques pour les chiens qui l'ingèrent accidentellement[3].</t>
+</t>
         </is>
       </c>
     </row>
@@ -571,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cl%C3%A9matite</t>
+          <t>Clématite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,33 +599,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Caractéristiques culturales</t>
+          <t>Aspects botaniques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les clématites sont réparties en 3 groupes, en fonction de leur exigence de culture :
-Groupe 1
-Espèces à floraison précoce : ces clématites portent des petites fleurs en janvier ou en mars, sur les pousses de l'année précédente. Elles se plaisent en situation abritée mais ensoleillée, dans un sol bien drainé. Feuilles vert moyen, lustrées, persistantes ou caduques, divisées en 3 folioles lancéolées de 9 à 12 cm de long ou entières, oblongues et finement découpées, de 5 cm de long. Fleurs simples, en clochette ouverte, de 2 à 5 cm de diamètre. Plantes rustiques. Exemples de clématites du groupe : Clematis alpina et Clematis montana.
-Groupe 2
-Cultivars précoces à grandes fleurs : ces clématites fleurissent entre mai et juillet, sur les pousses latérales des tiges de l'année précédente, puis en août-septembre, à l'extrémité des pousses de l'année. Les feuilles, caduques, vert pâle à vert moyen, sont composées de 3 folioles ovales à lancéolées de 10 à 15 cm de long ou simples et ovales mesurant de 7 à 10 cm de long. Les fleurs sont dressées, simples, semi-doubles ou doubles, le plus souvent en coupe large, de 10 à 20 cm de diamètre. Ces plantes sont assez rustiques, les hivers rigoureux peuvent compromettre leur précocité.
-Groupe 3
-Comprend 3 catégories :
-Cultivars tardifs à grandes fleurs : ces clématites fleurissent de juillet à septembre sur les pousses de l'année. Les feuilles, caduques, vert pâle à foncé, sont composées de 3 folioles ovales à lancéolées de 10 à 15 cm de long ou sont simples et ovales mesurant de 7 à 10 cm de long. Les fleurs, simples, ouvertes vers l'extérieur, forment une coupe large de 7 à 15 cm de diamètre. Bonne rusticité.
-Espèces et cultivars tardifs à petites fleurs : ces clématites fleurissent de juin à octobre sur les pousses de l'année. Les feuilles, de 2 à 15 cm de long, caduques, vert pâle à foncé ou gris-vert, sont pennées ou bipennées, avec des folioles lancéolées, ou simples et lancéolées. Les fleurs, de 1 à 10 cm de diamètre, sont simples ou doubles en coupe large, en étoile, campanulées, en forme de tulipe ou tubulées. Très bonne rusticité.
-Espèces et cultivars herbacées : ces clématites fleurissent de juillet à octobre sur les pousses de l'année. On les plantes dans les massifs de vivaces. Les feuilles, de 3 à 15 cm de long, vert moyen à foncé ou vert-grisâtre, sont entières et lancéolées, ovales ou cordiformes, parfois avec le bord denté. Certaines sont composées de 3 à 5 folioles lancéolées et ovales de 3 à 8 cm de long. Les fleurs sont simples, étalées, mesurant de 1 à 2 cm de diamètre, ou encore campanulacées ou tubulées, de 1 à 14 cm de long.
-Rusticité
-Très bonne en général, presque tout le temps.
-Culture
-Planter la clématite de préférence au soleil, dans un sol fertile, humifère, bien drainé, en ombrageant les racines et la base de la tige (avec une tuile plate par exemple). Les espèces herbacées préfèrent le plein soleil. Paillez toutes les clématites en février avec du compost de jardin ou du fumier bien décomposé, en évitant le contact direct avec les tiges. Recouvrez le pied des clématites grimpantes avec une petite butte de terre, ceci afin de réduire les risques de flétrissement, tout en favorisant l'émission de pousses vigoureuses depuis la souche. Après la plantation, rabattez les tiges des clématites grimpantes caduques, à environ 30 cm de base au-dessus d'une belle paire de bourgeons. Palissez les tiges, sans les serrer, jusqu'à ce que la plante s'agrippe d'elle-même. Soutenez les espèces et les cultivars herbacés en piquant des branches ramifiées dans le sol.
-Taillez les clématites du « groupe 1 » après la floraison. Supprimez les tiges mortes ou abîmées, raccourcissez les autres si nécessaire. Cela favorise la formation de nouvelles pousses pour l'année prochaine.
-Pour les clématites du « groupe 2 », supprimez les tiges mortes ou faibles en mars avant la reprise de la croissance et rabattez toutes les autres au-dessus de 2 beaux bourgeons. Ces derniers produisent des tiges secondaires qui porteront des pousses latérales fleurissant en mai. Supprimez les fleurs fanées. Les jeunes vont fleurir en fin de saison.
-Pour le « groupe 3 », rabattez toutes les tiges de l'année précédente au-dessus d'une belle paire de bourgeons, entre 15 et 20 cm du sol, en mars, avant l'entrée en végétation.
-Reproduction
-Les fruits de la clématite sont des akènes à carpelles à arête plumeuse. Les semis se font en godet ou en châssis froid en automne.
-La division ou séparation de rejets des espèces herbacées se pratique en avril et les boutures herbacées en mai-juin, ou semi-ligneuses en juillet alors que les marcottes sont à faire en février ou en mars.
-Ennemis et maladies
-La clématite flétrit en sol trop humide. Les campagnols et les vers gris dévorent les tiges. Les pucerons et aleurodes des serres sont également des parasites des clématites.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, parfois opposées, parfois alternes, glabres ou pubescentes, sont simples, tripalmées, pennées ou bipennées, avec le bord entier ou irrégulièrement découpé. Les espèces grimpantes s'accrochent au support ou à la plante hôte par le biais des pétioles transformés en vrilles. Certaines espèces disposent de feuilles persistantes comme la Clematis armandii ou les clématites du genre cirrhosa.
 </t>
         </is>
       </c>
@@ -623,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cl%C3%A9matite</t>
+          <t>Clématite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,13 +636,390 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aspects botaniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, bisexuées, sont généralement solitaires ou groupées en cymes ou en panicules. Elles ne possèdent pas de pétales mais présentent 4 à 10 sépales, avec des dimensions et des formes très variables. Les clématites sont cultivées pour leur floraison généreuse, souvent suivie de fruits plumeux, décoratifs, gris argenté.
+Certaines, comme Clematis recta, sont odorantes. Utilisez les formes grimpantes pour garnir une pergola, un treillage, un arceau, une tonnelle ou un mur, voire pour habiller les branches d'un grand arbuste ou d'un petit arbre. Cultivez les espèces herbacées dans les massifs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspects botaniques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les clématites contiennent une proto-anémonine toxique. En interne le jus est un violent purgatif qui peut être fatal. En externe, elles peuvent être irritantes et allergisantes. Elles sont toxiques pour les chiens qui l'ingèrent accidentellement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les clématites sont réparties en 3 groupes, en fonction de leur exigence de culture :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Groupe 1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces à floraison précoce : ces clématites portent des petites fleurs en janvier ou en mars, sur les pousses de l'année précédente. Elles se plaisent en situation abritée mais ensoleillée, dans un sol bien drainé. Feuilles vert moyen, lustrées, persistantes ou caduques, divisées en 3 folioles lancéolées de 9 à 12 cm de long ou entières, oblongues et finement découpées, de 5 cm de long. Fleurs simples, en clochette ouverte, de 2 à 5 cm de diamètre. Plantes rustiques. Exemples de clématites du groupe : Clematis alpina et Clematis montana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Groupe 2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultivars précoces à grandes fleurs : ces clématites fleurissent entre mai et juillet, sur les pousses latérales des tiges de l'année précédente, puis en août-septembre, à l'extrémité des pousses de l'année. Les feuilles, caduques, vert pâle à vert moyen, sont composées de 3 folioles ovales à lancéolées de 10 à 15 cm de long ou simples et ovales mesurant de 7 à 10 cm de long. Les fleurs sont dressées, simples, semi-doubles ou doubles, le plus souvent en coupe large, de 10 à 20 cm de diamètre. Ces plantes sont assez rustiques, les hivers rigoureux peuvent compromettre leur précocité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Groupe 3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Comprend 3 catégories :
+Cultivars tardifs à grandes fleurs : ces clématites fleurissent de juillet à septembre sur les pousses de l'année. Les feuilles, caduques, vert pâle à foncé, sont composées de 3 folioles ovales à lancéolées de 10 à 15 cm de long ou sont simples et ovales mesurant de 7 à 10 cm de long. Les fleurs, simples, ouvertes vers l'extérieur, forment une coupe large de 7 à 15 cm de diamètre. Bonne rusticité.
+Espèces et cultivars tardifs à petites fleurs : ces clématites fleurissent de juin à octobre sur les pousses de l'année. Les feuilles, de 2 à 15 cm de long, caduques, vert pâle à foncé ou gris-vert, sont pennées ou bipennées, avec des folioles lancéolées, ou simples et lancéolées. Les fleurs, de 1 à 10 cm de diamètre, sont simples ou doubles en coupe large, en étoile, campanulées, en forme de tulipe ou tubulées. Très bonne rusticité.
+Espèces et cultivars herbacées : ces clématites fleurissent de juillet à octobre sur les pousses de l'année. On les plantes dans les massifs de vivaces. Les feuilles, de 3 à 15 cm de long, vert moyen à foncé ou vert-grisâtre, sont entières et lancéolées, ovales ou cordiformes, parfois avec le bord denté. Certaines sont composées de 3 à 5 folioles lancéolées et ovales de 3 à 8 cm de long. Les fleurs sont simples, étalées, mesurant de 1 à 2 cm de diamètre, ou encore campanulacées ou tubulées, de 1 à 14 cm de long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rusticité</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très bonne en général, presque tout le temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Planter la clématite de préférence au soleil, dans un sol fertile, humifère, bien drainé, en ombrageant les racines et la base de la tige (avec une tuile plate par exemple). Les espèces herbacées préfèrent le plein soleil. Paillez toutes les clématites en février avec du compost de jardin ou du fumier bien décomposé, en évitant le contact direct avec les tiges. Recouvrez le pied des clématites grimpantes avec une petite butte de terre, ceci afin de réduire les risques de flétrissement, tout en favorisant l'émission de pousses vigoureuses depuis la souche. Après la plantation, rabattez les tiges des clématites grimpantes caduques, à environ 30 cm de base au-dessus d'une belle paire de bourgeons. Palissez les tiges, sans les serrer, jusqu'à ce que la plante s'agrippe d'elle-même. Soutenez les espèces et les cultivars herbacés en piquant des branches ramifiées dans le sol.
+Taillez les clématites du « groupe 1 » après la floraison. Supprimez les tiges mortes ou abîmées, raccourcissez les autres si nécessaire. Cela favorise la formation de nouvelles pousses pour l'année prochaine.
+Pour les clématites du « groupe 2 », supprimez les tiges mortes ou faibles en mars avant la reprise de la croissance et rabattez toutes les autres au-dessus de 2 beaux bourgeons. Ces derniers produisent des tiges secondaires qui porteront des pousses latérales fleurissant en mai. Supprimez les fleurs fanées. Les jeunes vont fleurir en fin de saison.
+Pour le « groupe 3 », rabattez toutes les tiges de l'année précédente au-dessus d'une belle paire de bourgeons, entre 15 et 20 cm du sol, en mars, avant l'entrée en végétation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de la clématite sont des akènes à carpelles à arête plumeuse. Les semis se font en godet ou en châssis froid en automne.
+La division ou séparation de rejets des espèces herbacées se pratique en avril et les boutures herbacées en mai-juin, ou semi-ligneuses en juillet alors que les marcottes sont à faire en février ou en mars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Caractéristiques culturales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ennemis et maladies</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite flétrit en sol trop humide. Les campagnols et les vers gris dévorent les tiges. Les pucerons et aleurodes des serres sont également des parasites des clématites.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A, B
-Clematis acapulcensis, Hook. &amp; Arn.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Clematis acapulcensis, Hook. &amp; Arn.
 Clematis acerifolia, Maxim.
 Clematis acuminata,
 Clematis acutangula, Hook. &amp; Thomson
@@ -676,9 +1051,43 @@
 Clematis brachiata, Thunb.
 Clematis brevicaudata, Roxb.
 Clematis brevipes, Rehder
-Clematis buchananiana, Roxb.e
-C, D
-Clematis cadmia, Hook. &amp; Buch.-Ham.
+Clematis buchananiana, Roxb.e</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>C, D</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Clematis cadmia, Hook. &amp; Buch.-Ham.
 Clematis campaniflora, Brot. - synonyme : Clematis revoluta
 Clematis campestris, St. Hil.
 Clematis canescens, Tang &amp; Cheng
@@ -707,9 +1116,43 @@
 Clematis dilatata, C. Pei
 Clematis dioica, L. - Vigne sauvage
 Clematis distorta Lavallée
-Clematis drummondii, Torr. &amp; A. Gray
-E, F
-Clematis eriostemon, Dene - synonyme : Clematis hendersoni, Clematis divaricata
+Clematis drummondii, Torr. &amp; A. Gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>E, F</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Clematis eriostemon, Dene - synonyme : Clematis hendersoni, Clematis divaricata
 Clematis falciformis, R.Vig. &amp; H.Perrier
 Clematis fasciculiflora, Franch.
 Clematis fawcettii, F.Muell.
@@ -724,9 +1167,43 @@
 Clematis fremontii, S.Watson
 Clematis fruticosa, Turcz.
 Clematis fulvicoma, Rehder &amp; E.H.Wilson
-Clematis fusca, Turcz. - Clematis Kantschatica
-G, H
-Clematis glabrifolia, K. Sun &amp; M. S. Yan
+Clematis fusca, Turcz. - Clematis Kantschatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>G, H</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Clematis glabrifolia, K. Sun &amp; M. S. Yan
 Clematis glauca, Willd.
 Clematis glaucophylla, Small
 Clematis glycinoides, Roxb.
@@ -752,9 +1229,43 @@
 Clematis hirsutissima, Pursh
 Clematis hookeriana, Allan
 Clematis huchouensis, Tamura
-Clematis hupehensis, Hemsl. &amp; E. H. Wilson
-I, J, K, L
-Clematis ibarensis, Baker
+Clematis hupehensis, Hemsl. &amp; E. H. Wilson</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I, J, K, L</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Clematis ibarensis, Baker
 Clematis iliensis, Y. S. Hou &amp; W. H. Hou
 Clematis integrifolia, L. - synonyme : Valvaria integrifolia
 Clematis intricata, Bunge
@@ -780,9 +1291,43 @@
 Clematis ligusticifolia, Nutt.
 Clematis lingyunensis, W. T. Wang
 Clematis longistyla, Hand.-Mazz.
-Clematis loureiroana, Roxb.
-M, N
-Clematis macropetala, Ledeb.
+Clematis loureiroana, Roxb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>M, N</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Clematis macropetala, Ledeb.
 Clematis mandshurica, Rupr.
 Clematis marmoraria, Sneddon.
 Clematis mashanensis, W. T. Wang
@@ -802,9 +1347,43 @@
 Clematis napaulensis, Roxb.
 Clematis napoensis, W. T. Wang
 Clematis ningjingshanica, W. T. Wang
-Clematis nukiangensisM. Y. Fang
-O, P
-Clematis obscura, Maxim.
+Clematis nukiangensisM. Y. Fang</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>O, P</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Clematis obscura, Maxim.
 Clematis occidentalis, Hornem.
 Clematis ochotensis, Poir.
 Clematis ochroleuca, Aiton
@@ -836,9 +1415,43 @@
 Clematis pseudopogonandra, Finet &amp; Gagnepain
 Clematis psilandra, Kitag.
 Clematis pterantha, Dunn
-Clematis puberula, Hook. &amp; Thomson
-Q, R, S, T
-Clematis qingchengshanica, W. T Wang
+Clematis puberula, Hook. &amp; Thomson</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Q, R, S, T</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Clematis qingchengshanica, W. T Wang
 Clematis quinquefoliolata, Hutch.
 Clematis ranunculoides, Franch.
 Clematis recta, L. - synonyme : Clematis erecta - Clématite dressée ou clématite droite
@@ -880,9 +1493,43 @@
 Clematis tripartita, W. T. Wang
 Clematis ×triternata, W. T. Wang
 Clematis tsaii, W. T. Wang
-Clematis tsugetorum, Ohwi
-U, V, W, X, Y, Z
-Clematis uncinata, Champ.
+Clematis tsugetorum, Ohwi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>U, V, W, X, Y, Z</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Clematis uncinata, Champ.
 Clematis urophylla, Franch.
 Clematis vaniotii, Lév.
 Clematis venusta, M. C. Chang
@@ -910,33 +1557,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9matite</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Clématite</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9matite</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, la clématite symbolise le désir ou les liens[4].
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la clématite symbolise le désir ou les liens.
 </t>
         </is>
       </c>
